--- a/ICT_Labs/Lab1/A bar chart re-design.xlsx
+++ b/ICT_Labs/Lab1/A bar chart re-design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d3e82170e5e16e7/Рабочий стол/ICT/ICT_Labs/Lab1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9d3e82170e5e16e7/Рабочий стол/ICT/ICT-Fall-2023/ICT_Labs/Lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{80F2D700-3721-4219-BFFC-E5E3897291D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59034CDE-20F8-40D1-9CB2-F4857D3EB1E4}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{80F2D700-3721-4219-BFFC-E5E3897291D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8975FC0-A8FA-449D-B53E-A37535DD381D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8DB5C05-0DF8-4CB3-AB23-9A454BF2643C}"/>
+    <workbookView minimized="1" xWindow="4428" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{D8DB5C05-0DF8-4CB3-AB23-9A454BF2643C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1598,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767D945B-6CEC-4853-9F96-D363D5F144C4}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1774,6 +1774,12 @@
         <v>3816.6666666666665</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f>SUM(B2:B7)</f>
+        <v>834200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
